--- a/Output_testing/R1_201907/Country/HKD/MN/JORDAN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/JORDAN_201907_HKD_MN.xlsx
@@ -810,136 +810,443 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>625.236235</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>43.1778492134103</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>908.072466</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>50.97060763113988</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>772.864137</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>43.95213134997131</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>302.633367</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>27.49066021501063</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-40.76806502784989</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>0.965319</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>0.06666343997935439</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>0.813267</v>
+      </c>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H19" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>135.959662</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>12.35032642976772</v>
+      </c>
+      <c r="K19" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>70.121312</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>4.842469560617353</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>53.120933</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>2.98170722527234</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>117.491575</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>6.681646734133564</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>85.64607599999999</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>7.779932521667305</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>46.57767046245209</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>112.390163</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>7.761491160352543</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>159.361837</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>8.945067678227204</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>129.755856</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>7.379106046345068</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>76.819266</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>6.978121284202343</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-3.946242892413576</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>63.871972</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>4.410899787308656</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>90.77915</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>5.095483685481983</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>126.567423</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>7.197782551945971</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>75.748694</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>6.880872486492261</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-7.877402325134186</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>67.655619</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>4.672192608321776</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>89.871139</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>5.044516527971275</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>92.057236</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>5.235217335989945</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>62.32935</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>5.661883880347117</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>8.418220803480114</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>90.637511</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>6.259286592749727</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>85.988242</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>4.826567380882908</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>76.249656</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>4.336253599385383</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>59.85807</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>5.437397335953116</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>37.25926285684488</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>61.559839</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>4.251227451562872</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>67.611869</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>3.795091443733996</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>77.806421</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>4.424785511380464</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>52.60317</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>4.778375520973009</v>
+      </c>
+      <c r="K25" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>COTTON FABRICS, WOVEN (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>92.186817</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>6.366279273449738</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>58.541601</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>3.28597230550733</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>63.414546</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>3.60633172359348</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>34.854912</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>3.166156303630911</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-17.89608994305242</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>25.059287</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.730555676258227</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>24.007767</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.347569183819773</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>32.14913</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.828293896560119</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>27.516686</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.499565307579386</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>53.6819526392581</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>238.364512</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>16.46108523598945</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>243.392727</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>13.66176781335219</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>269.938422</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>15.35117029262284</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>186.889601</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>16.9767087143762</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>18.47455178437421</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1278,483 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>2.677929</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>8.704720479236498</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>2.053837</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>7.736513516241941</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>3.884579</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>14.77174065480621</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>3.145711</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>29.49706263469352</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>76.33126641696255</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>3.732604</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>12.13298578105695</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>3.25072</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>12.24500250872781</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>5.960132</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>22.66436701954355</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>2.876611</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>26.97373498158233</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>82.76659766723466</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>6.777064</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>22.02913064158774</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>5.081431</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>19.14103193844049</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>4.070252</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>15.47779230225626</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>2.130718</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>19.97956020208751</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>13.93141608062556</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>13.850842</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>45.02274257908593</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>14.008797</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>52.76915711265769</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>9.498182</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>36.11837504042229</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>1.330089</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>12.47213063842065</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-81.78883804404944</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>0.996929</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>3.240559507979772</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>1.619451605661136</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>0.97585</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>3.710827638720346</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>0.50108</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>4.698584245339838</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>5.468322458429808</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>CLOTHING ACCESSORIES, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED (OTHER THAN THOSE FOR BABIES)</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>1.9219</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>6.247216520320227</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>1.116265</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>4.204812387841786</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>0.7123429999999999</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>2.708799603062938</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>2.198680124289125</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-67.08355384976058</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.09804002814596728</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>1.545765577703723</v>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.8790830585298105</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.4241859441932368</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>0.954499</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>3.629637003976976</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>1.33826383992707</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-75.12024196570989</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>1.403476734132423</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>1.435805949527108</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>0.4325413858907857</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.5684754328125801</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-32.88349127623771</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.1502825897303381</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.2711145845470163</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.2990391757167174</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-16.64009200930548</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>0.3063895805048878</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>0.1757164188324848</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>0.2148047667736178</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>0.4287031474269419</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>44.5614367925125</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1786,443 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>625.236235</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>44.11508357124222</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>908.072466</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>51.74161759439006</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>772.864137</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>44.61941883198799</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>302.633367</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>27.75957909120178</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-40.76806502784989</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>0.965319</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>0.06811046125295021</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>0.813267</v>
+      </c>
+      <c r="F45" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G45" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H45" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>135.959662</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>12.47113967608886</v>
+      </c>
+      <c r="K45" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>70.121312</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>4.94758199515604</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>53.120933</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>3.026810199025697</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>117.491575</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>6.783088441008783</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>85.64607599999999</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>7.856037303953594</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>46.57767046245209</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>112.390163</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>7.92996495689431</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>159.361837</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>9.080375782689485</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>129.755856</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>7.491136679262324</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>76.819266</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>7.046382596189625</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-3.946242892413576</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>63.60153</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>4.487562706932476</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>90.66654</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>5.166144351839063</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>125.612924</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>7.251954642924098</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>75.605975</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>6.935091340340948</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-7.404998821282859</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>63.923015</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>4.510245873466963</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>86.620419</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>4.935597943527823</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>86.097104</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>4.970605517431621</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>59.452739</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>5.453407292194177</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>6.325452384120833</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>83.86044699999999</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>5.916980527730818</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>80.906811</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>4.610038771447114</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>72.17940400000001</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>4.167101181095778</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>57.727352</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>5.295143127987091</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>38.30449266085276</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>61.559839</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>4.343506166300832</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>67.611869</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>3.852498122809502</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>77.806421</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>4.491963231587993</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>52.60317</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>4.825118500773025</v>
+      </c>
+      <c r="K51" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>COTTON FABRICS, WOVEN (NOT INCLUDING NARROW OR SPECIAL FABRICS)</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>92.186817</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>6.504468084966018</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>58.541601</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>3.335677763304589</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>63.414546</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>3.66108356249731</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>34.854912</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>3.197128247860646</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-17.89608994305242</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>24.62752</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.737655372696752</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>23.626599</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.346234465074067</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>32.035383</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.849484408823265</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>27.456061</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.51845559667702</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>54.12087751706069</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>218.812288</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>15.43884028336061</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>225.671336</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>12.85866536705134</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>254.739684</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>14.70677200477251</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>181.435785</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>16.64251722673324</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>23.08941542526122</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2254,473 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>129.69105</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>54.56314758109649</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>160.866587</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>55.34510844792213</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>184.242836</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>46.17178550325035</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>118.083659</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>42.87792360560733</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>13.89857983347111</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>4.928395</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>2.073456446863049</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>8.739761</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>3.006858225654532</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>12.639185</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>3.167416174357516</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>50.898552</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>18.482017264489</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>558.0110797221847</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>54.427639</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>22.8985986253303</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>74.972769</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>25.79389609941818</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>109.084793</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>27.33696339792807</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>41.843204</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>15.1938864337346</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-41.7044936152361</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, CAPES, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>17.896877</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>7.529509098675133</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>12.752721</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>4.387491149738223</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>44.686631</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>11.19859847030849</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>23.625025</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>8.578596104737601</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-21.17418607970631</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>15.386061</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>6.473167709219357</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>14.083729</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>4.845415840494869</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>18.364915</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>4.602300608124729</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>10.972459</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>3.984262198105316</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-18.22645123531993</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES OF THE MOTOR VEHICLES OF GROUPS 722, 781, 782 AND 783</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>7.499482</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.72317286744669</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>1.026923</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.4320433152744338</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>3.918754</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.34822195929804</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>3.156693</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.7910763601989488</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>4.36616</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.585417292411802</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>487.9605814213419</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.05803962723713599</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>3.71942</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.350576430030577</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>1.691194</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.7115129980847938</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>2.543179</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.8749642805406083</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>5.184306</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.29920201953043</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>3.017037</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.09553077112296</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>9.794279267804495</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLS, PHENOLS, PHENOL-ALCOHOLS, AND THEIR HALOGENATED, SULPHONATED, NITRATED OR NITROSATED DERIVATIVES</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>2.964</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.076272251751786</v>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>12.641686</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>5.318564225456432</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>12.783394</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>4.398043996933416</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>21.446752</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>5.374617839064339</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>8.406005</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>3.05234478056234</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-22.03486651377249</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
